--- a/segs.xlsx
+++ b/segs.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="segs_2" localSheetId="0">Sheet2!$A$2:$F$3</definedName>
+    <definedName name="segs" localSheetId="1">Sheet1!$A$2:$F$25</definedName>
+    <definedName name="segs" localSheetId="0">'Sheet1 (2)'!$A$2:$F$25</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,8 +34,20 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="segs2" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/Smith-Box/Documents/chinese_orca/segs.tsv">
+  <connection id="1" name="segs" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/Smith-Box/Documents/chinese_orca/segs.tsv">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="segs1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/Smith-Box/Documents/chinese_orca/segs.tsv">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -47,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="37">
   <si>
     <t>JIEBA</t>
   </si>
@@ -75,18 +90,117 @@
   <si>
     <t>RECALL</t>
   </si>
+  <si>
+    <t>FNLP</t>
+  </si>
+  <si>
+    <t>UD</t>
+  </si>
+  <si>
+    <t>simp</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>STANFORD_CTB</t>
+  </si>
+  <si>
+    <t>STANFORD_PKU</t>
+  </si>
+  <si>
+    <t>APERTIUM</t>
+  </si>
+  <si>
+    <t>1m51.301s</t>
+  </si>
+  <si>
+    <t>1m54.953s</t>
+  </si>
+  <si>
+    <t>1m48.538s</t>
+  </si>
+  <si>
+    <t>1m53.794s</t>
+  </si>
+  <si>
+    <t>0m25.873s</t>
+  </si>
+  <si>
+    <t>0m14.380s</t>
+  </si>
+  <si>
+    <t>0m15.048s</t>
+  </si>
+  <si>
+    <t>0m14.330s</t>
+  </si>
+  <si>
+    <t>19m23.436s</t>
+  </si>
+  <si>
+    <t>19m16.546s</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>0m8.941s</t>
+  </si>
+  <si>
+    <t>0m8.612s</t>
+  </si>
+  <si>
+    <t>0m1.651s</t>
+  </si>
+  <si>
+    <t>0m1.442s</t>
+  </si>
+  <si>
+    <t>0m1.406s</t>
+  </si>
+  <si>
+    <t>0m1.280s</t>
+  </si>
+  <si>
+    <t>0m13.633s</t>
+  </si>
+  <si>
+    <t>0m13.698s</t>
+  </si>
+  <si>
+    <t>0m13.226s</t>
+  </si>
+  <si>
+    <t>0m12.964s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,14 +220,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -125,8 +247,1868 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Universal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dependency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$I$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PARSER ACCURACY TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$2:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51915</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-480357808"/>
+        <c:axId val="-480353152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-480357808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-480353152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-480353152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-480357808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$F$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>STANFORD_PKU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CTB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>trad</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.822691284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.884609245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.744147277</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0m8.941s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0m1.651s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0m1.406s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0m13.633s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0m13.226s</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0m8.612s</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0m1.442s</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0m1.280s</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0m13.698s</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0m12.964s</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19m16.546s</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0m14.330s</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0m14.380s</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1m53.794s</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1m54.953s</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19m23.436s</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0m15.048s</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0m25.873s</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1m48.538s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-525688800"/>
+        <c:axId val="-525684016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-525688800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-525684016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-525684016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-525688800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312209</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667193" cy="6272018"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="segs_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="segs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="segs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,23 +2374,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -427,28 +2408,1301 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5605</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.634256102550115</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.52001341681574198</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5605</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89475000000000005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.96519210433556502</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.83879614029713501</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.89475000000000005</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.97504832191179003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.85718699312582003</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51915</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.63588508208422501</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42564500716674603</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.51915</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.91615000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.97263810015487795</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.87081118557892301</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.91615000000000002</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.95299145299145205</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.82767762460233296</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="K7" s="2">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.56254999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.63308681457791904</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.52783024108432397</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8165</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.92066610534194004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.72836947672267005</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.87065000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.93371212121212099</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.80741457604406996</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.51375000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.63262910798121996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.41877838871623202</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.91544875818165505</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.75040423342642903</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.78644999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.89450921399022099</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.69017047515415297</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.55315865155905297</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.626496552410715</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.50267569345109497</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.97585223597915605</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.98974496961588898</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.96179392251017104</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.91327648220618896</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.95386832284565903</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.86721951225279903</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.52531985998945796</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.63398617598325302</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.42951923523133301</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.97776550744168</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.98963442943310698</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.964826045206989</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.94720683603591704</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.95788331601152299</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.91904025959414704</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>0.54043451147866295</v>
-      </c>
-      <c r="E2">
-        <v>0.54943655576200401</v>
-      </c>
-      <c r="F2">
-        <v>0.41024143796491402</v>
+      <c r="D20" s="1">
+        <v>0.55270185529559301</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.62618445202455197</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.50227165209088298</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.86059413739644397</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92237846567823201</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79206464395143605</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.84530070796835999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.87099605436905403</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.781386227432184</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.52510015232807095</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.63375126681092298</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.42938837887856701</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.85394846330129104</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.90505504079233101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.78583593881819502</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.82269128370668798</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.88460924516966999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.74414727738425601</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5605</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.634256102550115</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.52001341681574198</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.89475000000000005</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.96519210433556502</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.83879614029713501</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.90754999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.97504832191179003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.85718699312582003</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51915</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.63588508208422501</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42564500716674603</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.91615000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.97263810015487795</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.87081118557892301</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.95299145299145205</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.82767762460233296</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.56254999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.63308681457791904</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.52783024108432397</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.8165</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.92066610534194004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.72836947672267005</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.87065000000000003</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.93371212121212099</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.80741457604406996</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.51375000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.63262910798121996</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.41877838871623202</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83020000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.91544875818165505</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.75040423342642903</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.78644999999999998</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.89450921399022099</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.69017047515415297</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.55315865155905297</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.626496552410715</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.50267569345109497</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.97585223597915605</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.98974496961588898</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.96179392251017104</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.91327648220618896</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.95386832284565903</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.86721951225279903</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.52531985998945796</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.63398617598325302</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.42951923523133301</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.97776550744168</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.98963442943310698</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.964826045206989</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.94720683603591704</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.95788331601152299</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.91904025959414704</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.55270185529559301</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.62618445202455197</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.50227165209088298</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.86059413739644397</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92237846567823201</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.79206464395143605</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.84530070796835999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.87099605436905403</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.781386227432184</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.52510015232807095</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.63375126681092298</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.42938837887856701</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.85394846330129104</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.90505504079233101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.78583593881819502</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.82269128370668798</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.88460924516966999</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.74414727738425601</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:G25">
+    <sortCondition descending="1" ref="B2:B25"/>
+    <sortCondition ref="C2:C25"/>
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>